--- a/DESIGN/Schémas.xlsx
+++ b/DESIGN/Schémas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\L3T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\L3T\DESIGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="153681376"/>
-        <c:axId val="151827064"/>
+        <c:axId val="169937416"/>
+        <c:axId val="169865768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153681376"/>
+        <c:axId val="169937416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1355,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151827064"/>
+        <c:crossAx val="169865768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1363,7 +1363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151827064"/>
+        <c:axId val="169865768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1451,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153681376"/>
+        <c:crossAx val="169937416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C33" s="7">
         <f>C4/(1-C$39)</f>
-        <v>0.86021505376344087</v>
+        <v>0.84121976866456361</v>
       </c>
       <c r="D33" s="33">
         <f>D4/(1-D$39)</f>
-        <v>0.54945054945054939</v>
+        <v>0.53361792956243326</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
@@ -3183,7 +3183,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f>I4/(1-I$39)</f>
-        <v>0.32258064516129031</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3195,15 +3195,15 @@
       </c>
       <c r="C34" s="22">
         <f>C5/(1-C$39)</f>
-        <v>0.32258064516129031</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="D34" s="34">
         <f>D5/(1-D$39)</f>
-        <v>0.21978021978021978</v>
+        <v>0.21344717182497333</v>
       </c>
       <c r="E34" s="22">
         <f>E5/(1-E$39)</f>
-        <v>0.44692737430167601</v>
+        <v>0.43173232595790612</v>
       </c>
       <c r="F34" s="22">
         <f t="shared" si="3"/>
@@ -3216,12 +3216,12 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22">
         <f>I5/(1-I$39)</f>
-        <v>0.96774193548387089</v>
+        <v>0.94637223974763407</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22">
         <f>K5/(1-K$39)</f>
-        <v>0.32894736842105265</v>
+        <v>0.30048076923076922</v>
       </c>
       <c r="L34" s="1"/>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="C35" s="7">
         <f>C6/(1-C$39)</f>
-        <v>0.37634408602150532</v>
+        <v>0.36803364879074651</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="7"/>
@@ -3247,11 +3247,11 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7">
         <f>J6/(1-J$39)</f>
-        <v>0.86092715231788086</v>
+        <v>0.78455039227519618</v>
       </c>
       <c r="K35" s="7">
         <f>K6/(1-K$39)</f>
-        <v>0.78947368421052633</v>
+        <v>0.72115384615384603</v>
       </c>
       <c r="L35" s="1"/>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="D36" s="34"/>
       <c r="E36" s="22">
         <f>E7/(1-E$39)</f>
-        <v>0.78212290502793291</v>
+        <v>0.75553157042633567</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" ref="F36:F37" si="5">F7/(1-F$39)</f>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H36" s="22">
         <f>H7/(1-H$39)</f>
-        <v>0.32258064516129037</v>
+        <v>0.29673590504451036</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -3289,11 +3289,11 @@
       <c r="C37" s="7"/>
       <c r="D37" s="33">
         <f>D8/(1-D$39)</f>
-        <v>0.76923076923076916</v>
+        <v>0.74706510138740656</v>
       </c>
       <c r="E37" s="7">
         <f>E8/(1-E$39)</f>
-        <v>0.27932960893854747</v>
+        <v>0.26983270372369134</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
@@ -3305,16 +3305,16 @@
       </c>
       <c r="H37" s="7">
         <f>H8/(1-H$39)</f>
-        <v>0.90322580645161299</v>
+        <v>0.83086053412462901</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7">
         <f>J8/(1-J$39)</f>
-        <v>0.39735099337748342</v>
+        <v>0.36210018105009051</v>
       </c>
       <c r="K37" s="7">
         <f>K8/(1-K$39)</f>
-        <v>0.19736842105263158</v>
+        <v>0.18028846153846151</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -3324,12 +3324,15 @@
       </c>
       <c r="C38" s="22">
         <f>C29/(1-C$39)</f>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="D38" s="34"/>
+        <v>0.31545741324921134</v>
+      </c>
+      <c r="D38" s="22">
+        <f>(D9+D29)/(1-D$39)</f>
+        <v>0.69370330843116312</v>
+      </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:K38" si="6">E29/(1-E$39)</f>
-        <v>0.33519553072625696</v>
+        <v>0.32379924446842956</v>
       </c>
       <c r="F38" s="22">
         <f t="shared" si="6"/>
@@ -3341,19 +3344,19 @@
       </c>
       <c r="H38" s="22">
         <f t="shared" si="6"/>
-        <v>0.38709677419354843</v>
+        <v>0.35608308605341243</v>
       </c>
       <c r="I38" s="22">
         <f t="shared" si="6"/>
-        <v>0.32258064516129031</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="J38" s="22">
         <f t="shared" si="6"/>
-        <v>0.39735099337748342</v>
+        <v>0.36210018105009051</v>
       </c>
       <c r="K38" s="22">
         <f t="shared" si="6"/>
-        <v>0.39473684210526316</v>
+        <v>0.36057692307692302</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -3362,16 +3365,16 @@
         <v>13</v>
       </c>
       <c r="C39" s="11">
-        <f>C19</f>
-        <v>6.9999999999999979E-2</v>
+        <f>C19*(1-C29)</f>
+        <v>4.8999999999999981E-2</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" ref="D39:K39" si="7">D19</f>
-        <v>9.0000000000000011E-2</v>
+        <f t="shared" ref="D39:K39" si="7">D19*(1-D29)</f>
+        <v>6.3E-2</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="7"/>
-        <v>0.10500000000000001</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="7"/>
@@ -3383,19 +3386,19 @@
       </c>
       <c r="H39" s="11">
         <f t="shared" si="7"/>
-        <v>0.22500000000000003</v>
+        <v>0.1575</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="7"/>
-        <v>6.9999999999999979E-2</v>
+        <v>4.8999999999999981E-2</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="7"/>
-        <v>0.24499999999999997</v>
+        <v>0.17149999999999996</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="7"/>
-        <v>0.24</v>
+        <v>0.16799999999999998</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" t="s">
@@ -3408,15 +3411,15 @@
       </c>
       <c r="C40" s="24">
         <f>SUM(C33:C38)</f>
-        <v>1.8817204301075268</v>
+        <v>1.8401682439537328</v>
       </c>
       <c r="D40" s="36">
         <f t="shared" ref="D40:J40" si="8">SUM(D33:D38)</f>
-        <v>1.5384615384615383</v>
+        <v>2.1878335112059761</v>
       </c>
       <c r="E40" s="24">
         <f t="shared" si="8"/>
-        <v>1.8435754189944134</v>
+        <v>1.7808958445763627</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="8"/>
@@ -3428,19 +3431,19 @@
       </c>
       <c r="H40" s="24">
         <f t="shared" si="8"/>
-        <v>1.612903225806452</v>
+        <v>1.4836795252225516</v>
       </c>
       <c r="I40" s="24">
         <f t="shared" si="8"/>
-        <v>1.6129032258064515</v>
+        <v>1.5772870662460567</v>
       </c>
       <c r="J40" s="24">
         <f t="shared" si="8"/>
-        <v>1.6556291390728477</v>
+        <v>1.5087507543753773</v>
       </c>
       <c r="K40" s="24">
         <f t="shared" ref="K40" si="9">SUM(K33:K38)</f>
-        <v>1.7105263157894739</v>
+        <v>1.5624999999999996</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -3470,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
